--- a/Justin/NoFlow_Boundaries.xlsx
+++ b/Justin/NoFlow_Boundaries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Documents/Teaching/Groundwater_Modeling/HWRS582_Spring20/Course_Mat_Git/FInal_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hardknox47/Desktop/HWRS482/hw482/GroMore_Project/Justin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB07EDC-37C5-8E44-9F0E-9466FD6C2E52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDC8199-AC58-7044-B689-5A16D099D61D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27900" yWindow="460" windowWidth="29900" windowHeight="28040" xr2:uid="{76ED07CC-4216-B149-B9A3-8A78C10F09A5}"/>
+    <workbookView xWindow="-22260" yWindow="-3140" windowWidth="22260" windowHeight="21140" xr2:uid="{76ED07CC-4216-B149-B9A3-8A78C10F09A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,13 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Row</t>
-  </si>
-  <si>
-    <t>Column</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Cells that are no flow in all three layers</t>
   </si>
@@ -54,7 +48,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -573,245 +567,194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7613CA-5890-FD4E-9AAB-B1452D4EB631}">
-  <dimension ref="A1:AY57"/>
+  <dimension ref="A1:AY55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="51" width="3.5" customWidth="1"/>
+    <col min="1" max="50" width="3.5" customWidth="1"/>
+    <col min="51" max="51" width="3.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:51">
+      <c r="A1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
+      <c r="AQ1" s="10"/>
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="10"/>
+      <c r="AV1" s="10"/>
+      <c r="AW1" s="10"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51">
+      <c r="A2" s="5"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:51" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+    <row r="3" spans="1:51">
+      <c r="A3" s="5"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>6</v>
-      </c>
-      <c r="H2">
-        <v>7</v>
-      </c>
-      <c r="I2">
-        <v>8</v>
-      </c>
-      <c r="J2">
-        <v>9</v>
-      </c>
-      <c r="K2">
-        <v>10</v>
-      </c>
-      <c r="L2">
-        <v>11</v>
-      </c>
-      <c r="M2">
-        <v>12</v>
-      </c>
-      <c r="N2">
-        <v>13</v>
-      </c>
-      <c r="O2">
-        <v>14</v>
-      </c>
-      <c r="P2">
-        <v>15</v>
-      </c>
-      <c r="Q2">
-        <v>16</v>
-      </c>
-      <c r="R2">
-        <v>17</v>
-      </c>
-      <c r="S2">
-        <v>18</v>
-      </c>
-      <c r="T2">
-        <v>19</v>
-      </c>
-      <c r="U2">
-        <v>20</v>
-      </c>
-      <c r="V2">
-        <v>21</v>
-      </c>
-      <c r="W2">
-        <v>22</v>
-      </c>
-      <c r="X2">
-        <v>23</v>
-      </c>
-      <c r="Y2">
-        <v>24</v>
-      </c>
-      <c r="Z2">
-        <v>25</v>
-      </c>
-      <c r="AA2">
-        <v>26</v>
-      </c>
-      <c r="AB2">
-        <v>27</v>
-      </c>
-      <c r="AC2">
-        <v>28</v>
-      </c>
-      <c r="AD2">
-        <v>29</v>
-      </c>
-      <c r="AE2">
-        <v>30</v>
-      </c>
-      <c r="AF2">
-        <v>31</v>
-      </c>
-      <c r="AG2">
-        <v>32</v>
-      </c>
-      <c r="AH2">
-        <v>33</v>
-      </c>
-      <c r="AI2">
-        <v>34</v>
-      </c>
-      <c r="AJ2">
-        <v>35</v>
-      </c>
-      <c r="AK2">
-        <v>36</v>
-      </c>
-      <c r="AL2">
-        <v>37</v>
-      </c>
-      <c r="AM2">
-        <v>38</v>
-      </c>
-      <c r="AN2">
-        <v>39</v>
-      </c>
-      <c r="AO2">
-        <v>40</v>
-      </c>
-      <c r="AP2">
-        <v>41</v>
-      </c>
-      <c r="AQ2">
-        <v>42</v>
-      </c>
-      <c r="AR2">
-        <v>43</v>
-      </c>
-      <c r="AS2">
-        <v>44</v>
-      </c>
-      <c r="AT2">
-        <v>45</v>
-      </c>
-      <c r="AU2">
-        <v>46</v>
-      </c>
-      <c r="AV2">
-        <v>47</v>
-      </c>
-      <c r="AW2">
-        <v>48</v>
-      </c>
-      <c r="AX2">
-        <v>49</v>
-      </c>
-      <c r="AY2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>50</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="10"/>
-      <c r="AJ3" s="10"/>
-      <c r="AK3" s="10"/>
-      <c r="AL3" s="10"/>
-      <c r="AM3" s="10"/>
-      <c r="AN3" s="10"/>
-      <c r="AO3" s="10"/>
-      <c r="AP3" s="10"/>
-      <c r="AQ3" s="10"/>
-      <c r="AR3" s="10"/>
-      <c r="AS3" s="10"/>
-      <c r="AT3" s="10"/>
-      <c r="AU3" s="10"/>
-      <c r="AV3" s="10"/>
-      <c r="AW3" s="10"/>
-      <c r="AX3" s="10"/>
-      <c r="AY3" s="2"/>
-    </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>49</v>
-      </c>
-      <c r="B4" s="5"/>
+    </row>
+    <row r="4" spans="1:51">
+      <c r="A4" s="5"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -851,21 +794,21 @@
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
       <c r="AW4" s="1"/>
-      <c r="AX4" s="1"/>
-      <c r="AY4" s="3"/>
-    </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>48</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51">
+      <c r="A5" s="5"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -906,20 +849,20 @@
       <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
       <c r="AW5" s="1"/>
-      <c r="AX5" s="1"/>
-      <c r="AY5" s="3"/>
-    </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>47</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+      <c r="AX5" s="3"/>
+      <c r="AY5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51">
+      <c r="A6" s="5"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -961,19 +904,19 @@
       <c r="AU6" s="1"/>
       <c r="AV6" s="1"/>
       <c r="AW6" s="1"/>
-      <c r="AX6" s="1"/>
-      <c r="AY6" s="3"/>
-    </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>46</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="AX6" s="3"/>
+      <c r="AY6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51">
+      <c r="A7" s="5"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1016,18 +959,18 @@
       <c r="AU7" s="1"/>
       <c r="AV7" s="1"/>
       <c r="AW7" s="1"/>
-      <c r="AX7" s="1"/>
-      <c r="AY7" s="3"/>
-    </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>45</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="AX7" s="3"/>
+      <c r="AY7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51">
+      <c r="A8" s="5"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1071,17 +1014,17 @@
       <c r="AU8" s="1"/>
       <c r="AV8" s="1"/>
       <c r="AW8" s="1"/>
-      <c r="AX8" s="1"/>
-      <c r="AY8" s="3"/>
-    </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>44</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="AX8" s="3"/>
+      <c r="AY8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51">
+      <c r="A9" s="5"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1126,16 +1069,16 @@
       <c r="AU9" s="1"/>
       <c r="AV9" s="1"/>
       <c r="AW9" s="1"/>
-      <c r="AX9" s="1"/>
-      <c r="AY9" s="3"/>
-    </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>43</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="AX9" s="3"/>
+      <c r="AY9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51">
+      <c r="A10" s="5"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1181,15 +1124,15 @@
       <c r="AU10" s="1"/>
       <c r="AV10" s="1"/>
       <c r="AW10" s="1"/>
-      <c r="AX10" s="1"/>
-      <c r="AY10" s="3"/>
-    </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>42</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="12"/>
+      <c r="AX10" s="3"/>
+      <c r="AY10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51">
+      <c r="A11" s="5"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1236,14 +1179,14 @@
       <c r="AU11" s="1"/>
       <c r="AV11" s="1"/>
       <c r="AW11" s="1"/>
-      <c r="AX11" s="1"/>
-      <c r="AY11" s="3"/>
-    </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>41</v>
-      </c>
-      <c r="B12" s="5"/>
+      <c r="AX11" s="3"/>
+      <c r="AY11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51">
+      <c r="A12" s="5"/>
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1291,14 +1234,14 @@
       <c r="AU12" s="1"/>
       <c r="AV12" s="1"/>
       <c r="AW12" s="1"/>
-      <c r="AX12" s="1"/>
-      <c r="AY12" s="3"/>
-    </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>40</v>
-      </c>
-      <c r="B13" s="5"/>
+      <c r="AX12" s="3"/>
+      <c r="AY12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51">
+      <c r="A13" s="5"/>
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1346,14 +1289,14 @@
       <c r="AU13" s="1"/>
       <c r="AV13" s="1"/>
       <c r="AW13" s="1"/>
-      <c r="AX13" s="1"/>
-      <c r="AY13" s="3"/>
-    </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>39</v>
-      </c>
-      <c r="B14" s="5"/>
+      <c r="AX13" s="3"/>
+      <c r="AY13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51">
+      <c r="A14" s="5"/>
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1401,14 +1344,14 @@
       <c r="AU14" s="1"/>
       <c r="AV14" s="1"/>
       <c r="AW14" s="1"/>
-      <c r="AX14" s="1"/>
-      <c r="AY14" s="3"/>
-    </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>38</v>
-      </c>
-      <c r="B15" s="5"/>
+      <c r="AX14" s="3"/>
+      <c r="AY14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51">
+      <c r="A15" s="5"/>
+      <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1456,14 +1399,14 @@
       <c r="AU15" s="1"/>
       <c r="AV15" s="1"/>
       <c r="AW15" s="1"/>
-      <c r="AX15" s="1"/>
-      <c r="AY15" s="3"/>
-    </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>37</v>
-      </c>
-      <c r="B16" s="5"/>
+      <c r="AX15" s="3"/>
+      <c r="AY15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51">
+      <c r="A16" s="5"/>
+      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1511,14 +1454,14 @@
       <c r="AU16" s="1"/>
       <c r="AV16" s="1"/>
       <c r="AW16" s="1"/>
-      <c r="AX16" s="1"/>
-      <c r="AY16" s="3"/>
-    </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>36</v>
-      </c>
-      <c r="B17" s="5"/>
+      <c r="AX16" s="3"/>
+      <c r="AY16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:51">
+      <c r="A17" s="5"/>
+      <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1566,14 +1509,14 @@
       <c r="AU17" s="1"/>
       <c r="AV17" s="1"/>
       <c r="AW17" s="1"/>
-      <c r="AX17" s="1"/>
-      <c r="AY17" s="3"/>
-    </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>35</v>
-      </c>
-      <c r="B18" s="5"/>
+      <c r="AX17" s="3"/>
+      <c r="AY17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:51">
+      <c r="A18" s="5"/>
+      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1621,14 +1564,14 @@
       <c r="AU18" s="1"/>
       <c r="AV18" s="1"/>
       <c r="AW18" s="1"/>
-      <c r="AX18" s="1"/>
-      <c r="AY18" s="3"/>
-    </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>34</v>
-      </c>
-      <c r="B19" s="5"/>
+      <c r="AX18" s="3"/>
+      <c r="AY18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:51">
+      <c r="A19" s="5"/>
+      <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1676,14 +1619,14 @@
       <c r="AU19" s="1"/>
       <c r="AV19" s="1"/>
       <c r="AW19" s="1"/>
-      <c r="AX19" s="1"/>
-      <c r="AY19" s="3"/>
-    </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>33</v>
-      </c>
-      <c r="B20" s="5"/>
+      <c r="AX19" s="3"/>
+      <c r="AY19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:51">
+      <c r="A20" s="5"/>
+      <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1731,14 +1674,14 @@
       <c r="AU20" s="1"/>
       <c r="AV20" s="1"/>
       <c r="AW20" s="1"/>
-      <c r="AX20" s="1"/>
-      <c r="AY20" s="3"/>
-    </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>32</v>
-      </c>
-      <c r="B21" s="5"/>
+      <c r="AX20" s="3"/>
+      <c r="AY20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:51">
+      <c r="A21" s="5"/>
+      <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1786,14 +1729,14 @@
       <c r="AU21" s="1"/>
       <c r="AV21" s="1"/>
       <c r="AW21" s="1"/>
-      <c r="AX21" s="1"/>
-      <c r="AY21" s="3"/>
-    </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>31</v>
-      </c>
-      <c r="B22" s="5"/>
+      <c r="AX21" s="3"/>
+      <c r="AY21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:51">
+      <c r="A22" s="5"/>
+      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1841,14 +1784,14 @@
       <c r="AU22" s="1"/>
       <c r="AV22" s="1"/>
       <c r="AW22" s="1"/>
-      <c r="AX22" s="1"/>
-      <c r="AY22" s="3"/>
-    </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>30</v>
-      </c>
-      <c r="B23" s="5"/>
+      <c r="AX22" s="3"/>
+      <c r="AY22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:51">
+      <c r="A23" s="5"/>
+      <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1896,14 +1839,14 @@
       <c r="AU23" s="1"/>
       <c r="AV23" s="1"/>
       <c r="AW23" s="1"/>
-      <c r="AX23" s="1"/>
-      <c r="AY23" s="3"/>
-    </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>29</v>
-      </c>
-      <c r="B24" s="5"/>
+      <c r="AX23" s="3"/>
+      <c r="AY23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:51">
+      <c r="A24" s="5"/>
+      <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1951,14 +1894,14 @@
       <c r="AU24" s="1"/>
       <c r="AV24" s="1"/>
       <c r="AW24" s="1"/>
-      <c r="AX24" s="1"/>
-      <c r="AY24" s="3"/>
-    </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>28</v>
-      </c>
-      <c r="B25" s="5"/>
+      <c r="AX24" s="3"/>
+      <c r="AY24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:51">
+      <c r="A25" s="5"/>
+      <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -2006,14 +1949,14 @@
       <c r="AU25" s="1"/>
       <c r="AV25" s="1"/>
       <c r="AW25" s="1"/>
-      <c r="AX25" s="1"/>
-      <c r="AY25" s="3"/>
-    </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>27</v>
-      </c>
-      <c r="B26" s="5"/>
+      <c r="AX25" s="3"/>
+      <c r="AY25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:51">
+      <c r="A26" s="5"/>
+      <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -2061,14 +2004,14 @@
       <c r="AU26" s="1"/>
       <c r="AV26" s="1"/>
       <c r="AW26" s="1"/>
-      <c r="AX26" s="1"/>
-      <c r="AY26" s="3"/>
-    </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5"/>
+      <c r="AX26" s="3"/>
+      <c r="AY26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:51">
+      <c r="A27" s="5"/>
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -2116,14 +2059,14 @@
       <c r="AU27" s="1"/>
       <c r="AV27" s="1"/>
       <c r="AW27" s="1"/>
-      <c r="AX27" s="1"/>
-      <c r="AY27" s="3"/>
-    </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>25</v>
-      </c>
-      <c r="B28" s="5"/>
+      <c r="AX27" s="3"/>
+      <c r="AY27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:51">
+      <c r="A28" s="5"/>
+      <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -2171,14 +2114,14 @@
       <c r="AU28" s="1"/>
       <c r="AV28" s="1"/>
       <c r="AW28" s="1"/>
-      <c r="AX28" s="1"/>
-      <c r="AY28" s="3"/>
-    </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>24</v>
-      </c>
-      <c r="B29" s="5"/>
+      <c r="AX28" s="3"/>
+      <c r="AY28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:51">
+      <c r="A29" s="5"/>
+      <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -2226,14 +2169,14 @@
       <c r="AU29" s="1"/>
       <c r="AV29" s="1"/>
       <c r="AW29" s="1"/>
-      <c r="AX29" s="1"/>
-      <c r="AY29" s="3"/>
-    </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>23</v>
-      </c>
-      <c r="B30" s="5"/>
+      <c r="AX29" s="3"/>
+      <c r="AY29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:51">
+      <c r="A30" s="5"/>
+      <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -2281,14 +2224,14 @@
       <c r="AU30" s="1"/>
       <c r="AV30" s="1"/>
       <c r="AW30" s="1"/>
-      <c r="AX30" s="1"/>
-      <c r="AY30" s="3"/>
-    </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>22</v>
-      </c>
-      <c r="B31" s="5"/>
+      <c r="AX30" s="3"/>
+      <c r="AY30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:51">
+      <c r="A31" s="5"/>
+      <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -2336,14 +2279,14 @@
       <c r="AU31" s="1"/>
       <c r="AV31" s="1"/>
       <c r="AW31" s="1"/>
-      <c r="AX31" s="1"/>
-      <c r="AY31" s="3"/>
-    </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>21</v>
-      </c>
-      <c r="B32" s="5"/>
+      <c r="AX31" s="3"/>
+      <c r="AY31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:51">
+      <c r="A32" s="5"/>
+      <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2391,14 +2334,14 @@
       <c r="AU32" s="1"/>
       <c r="AV32" s="1"/>
       <c r="AW32" s="1"/>
-      <c r="AX32" s="1"/>
-      <c r="AY32" s="3"/>
-    </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>20</v>
-      </c>
-      <c r="B33" s="5"/>
+      <c r="AX32" s="3"/>
+      <c r="AY32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:51">
+      <c r="A33" s="5"/>
+      <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -2446,14 +2389,14 @@
       <c r="AU33" s="1"/>
       <c r="AV33" s="1"/>
       <c r="AW33" s="1"/>
-      <c r="AX33" s="1"/>
-      <c r="AY33" s="3"/>
-    </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>19</v>
-      </c>
-      <c r="B34" s="5"/>
+      <c r="AX33" s="3"/>
+      <c r="AY33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:51">
+      <c r="A34" s="5"/>
+      <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -2501,14 +2444,14 @@
       <c r="AU34" s="1"/>
       <c r="AV34" s="1"/>
       <c r="AW34" s="1"/>
-      <c r="AX34" s="1"/>
-      <c r="AY34" s="3"/>
-    </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>18</v>
-      </c>
-      <c r="B35" s="5"/>
+      <c r="AX34" s="3"/>
+      <c r="AY34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:51">
+      <c r="A35" s="5"/>
+      <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -2556,14 +2499,14 @@
       <c r="AU35" s="1"/>
       <c r="AV35" s="1"/>
       <c r="AW35" s="1"/>
-      <c r="AX35" s="1"/>
-      <c r="AY35" s="3"/>
-    </row>
-    <row r="36" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>17</v>
-      </c>
-      <c r="B36" s="5"/>
+      <c r="AX35" s="3"/>
+      <c r="AY35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:51">
+      <c r="A36" s="5"/>
+      <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -2611,14 +2554,14 @@
       <c r="AU36" s="1"/>
       <c r="AV36" s="1"/>
       <c r="AW36" s="1"/>
-      <c r="AX36" s="1"/>
-      <c r="AY36" s="3"/>
-    </row>
-    <row r="37" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>16</v>
-      </c>
-      <c r="B37" s="5"/>
+      <c r="AX36" s="3"/>
+      <c r="AY36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:51">
+      <c r="A37" s="5"/>
+      <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -2666,14 +2609,14 @@
       <c r="AU37" s="1"/>
       <c r="AV37" s="1"/>
       <c r="AW37" s="1"/>
-      <c r="AX37" s="1"/>
-      <c r="AY37" s="3"/>
-    </row>
-    <row r="38" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>15</v>
-      </c>
-      <c r="B38" s="5"/>
+      <c r="AX37" s="3"/>
+      <c r="AY37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:51">
+      <c r="A38" s="5"/>
+      <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -2721,14 +2664,14 @@
       <c r="AU38" s="1"/>
       <c r="AV38" s="1"/>
       <c r="AW38" s="1"/>
-      <c r="AX38" s="1"/>
-      <c r="AY38" s="3"/>
-    </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>14</v>
-      </c>
-      <c r="B39" s="5"/>
+      <c r="AX38" s="3"/>
+      <c r="AY38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:51">
+      <c r="A39" s="5"/>
+      <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -2776,14 +2719,14 @@
       <c r="AU39" s="1"/>
       <c r="AV39" s="1"/>
       <c r="AW39" s="1"/>
-      <c r="AX39" s="1"/>
-      <c r="AY39" s="3"/>
-    </row>
-    <row r="40" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>13</v>
-      </c>
-      <c r="B40" s="5"/>
+      <c r="AX39" s="3"/>
+      <c r="AY39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:51">
+      <c r="A40" s="5"/>
+      <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2831,14 +2774,14 @@
       <c r="AU40" s="1"/>
       <c r="AV40" s="1"/>
       <c r="AW40" s="1"/>
-      <c r="AX40" s="1"/>
-      <c r="AY40" s="3"/>
-    </row>
-    <row r="41" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>12</v>
-      </c>
-      <c r="B41" s="5"/>
+      <c r="AX40" s="3"/>
+      <c r="AY40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:51">
+      <c r="A41" s="5"/>
+      <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2886,14 +2829,14 @@
       <c r="AU41" s="1"/>
       <c r="AV41" s="1"/>
       <c r="AW41" s="1"/>
-      <c r="AX41" s="1"/>
-      <c r="AY41" s="3"/>
-    </row>
-    <row r="42" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>11</v>
-      </c>
-      <c r="B42" s="5"/>
+      <c r="AX41" s="3"/>
+      <c r="AY41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:51">
+      <c r="A42" s="5"/>
+      <c r="B42" s="12"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -2941,15 +2884,15 @@
       <c r="AU42" s="1"/>
       <c r="AV42" s="1"/>
       <c r="AW42" s="1"/>
-      <c r="AX42" s="1"/>
-      <c r="AY42" s="3"/>
-    </row>
-    <row r="43" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>10</v>
-      </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="1"/>
+      <c r="AX42" s="3"/>
+      <c r="AY42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:51">
+      <c r="A43" s="5"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -2996,16 +2939,16 @@
       <c r="AU43" s="1"/>
       <c r="AV43" s="1"/>
       <c r="AW43" s="1"/>
-      <c r="AX43" s="1"/>
-      <c r="AY43" s="3"/>
-    </row>
-    <row r="44" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>9</v>
-      </c>
-      <c r="B44" s="5"/>
+      <c r="AX43" s="3"/>
+      <c r="AY43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:51">
+      <c r="A44" s="5"/>
+      <c r="B44" s="11"/>
       <c r="C44" s="12"/>
-      <c r="D44" s="1"/>
+      <c r="D44" s="12"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -3051,17 +2994,17 @@
       <c r="AU44" s="1"/>
       <c r="AV44" s="1"/>
       <c r="AW44" s="1"/>
-      <c r="AX44" s="1"/>
-      <c r="AY44" s="3"/>
-    </row>
-    <row r="45" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>8</v>
-      </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="12"/>
+      <c r="AX44" s="3"/>
+      <c r="AY44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:51">
+      <c r="A45" s="5"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
       <c r="D45" s="12"/>
-      <c r="E45" s="1"/>
+      <c r="E45" s="12"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -3106,18 +3049,18 @@
       <c r="AU45" s="1"/>
       <c r="AV45" s="1"/>
       <c r="AW45" s="1"/>
-      <c r="AX45" s="1"/>
-      <c r="AY45" s="3"/>
-    </row>
-    <row r="46" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>7</v>
-      </c>
-      <c r="B46" s="5"/>
+      <c r="AX45" s="3"/>
+      <c r="AY45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:51">
+      <c r="A46" s="5"/>
+      <c r="B46" s="7"/>
       <c r="C46" s="11"/>
-      <c r="D46" s="12"/>
+      <c r="D46" s="11"/>
       <c r="E46" s="12"/>
-      <c r="F46" s="1"/>
+      <c r="F46" s="12"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -3161,19 +3104,19 @@
       <c r="AU46" s="1"/>
       <c r="AV46" s="1"/>
       <c r="AW46" s="1"/>
-      <c r="AX46" s="1"/>
-      <c r="AY46" s="3"/>
-    </row>
-    <row r="47" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>6</v>
-      </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="11"/>
+      <c r="AX46" s="3"/>
+      <c r="AY46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:51">
+      <c r="A47" s="5"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
       <c r="D47" s="11"/>
-      <c r="E47" s="12"/>
+      <c r="E47" s="11"/>
       <c r="F47" s="12"/>
-      <c r="G47" s="1"/>
+      <c r="G47" s="12"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -3216,20 +3159,20 @@
       <c r="AU47" s="1"/>
       <c r="AV47" s="1"/>
       <c r="AW47" s="1"/>
-      <c r="AX47" s="1"/>
-      <c r="AY47" s="3"/>
-    </row>
-    <row r="48" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>5</v>
-      </c>
-      <c r="B48" s="5"/>
+      <c r="AX47" s="3"/>
+      <c r="AY47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:51">
+      <c r="A48" s="5"/>
+      <c r="B48" s="7"/>
       <c r="C48" s="7"/>
-      <c r="D48" s="11"/>
+      <c r="D48" s="7"/>
       <c r="E48" s="11"/>
-      <c r="F48" s="12"/>
+      <c r="F48" s="11"/>
       <c r="G48" s="12"/>
-      <c r="H48" s="1"/>
+      <c r="H48" s="12"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -3271,21 +3214,21 @@
       <c r="AU48" s="1"/>
       <c r="AV48" s="1"/>
       <c r="AW48" s="1"/>
-      <c r="AX48" s="1"/>
-      <c r="AY48" s="3"/>
-    </row>
-    <row r="49" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>4</v>
-      </c>
-      <c r="B49" s="5"/>
+      <c r="AX48" s="3"/>
+      <c r="AY48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:51">
+      <c r="A49" s="5"/>
+      <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
-      <c r="E49" s="11"/>
+      <c r="E49" s="7"/>
       <c r="F49" s="11"/>
-      <c r="G49" s="12"/>
+      <c r="G49" s="11"/>
       <c r="H49" s="12"/>
-      <c r="I49" s="1"/>
+      <c r="I49" s="12"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -3326,190 +3269,234 @@
       <c r="AU49" s="1"/>
       <c r="AV49" s="1"/>
       <c r="AW49" s="1"/>
-      <c r="AX49" s="1"/>
-      <c r="AY49" s="3"/>
-    </row>
-    <row r="50" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="AX49" s="3"/>
+      <c r="AY49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:51" ht="17" thickBot="1">
+      <c r="A50" s="6"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="8"/>
+      <c r="AD50" s="8"/>
+      <c r="AE50" s="8"/>
+      <c r="AF50" s="8"/>
+      <c r="AG50" s="8"/>
+      <c r="AH50" s="8"/>
+      <c r="AI50" s="8"/>
+      <c r="AJ50" s="8"/>
+      <c r="AK50" s="8"/>
+      <c r="AL50" s="8"/>
+      <c r="AM50" s="8"/>
+      <c r="AN50" s="8"/>
+      <c r="AO50" s="8"/>
+      <c r="AP50" s="8"/>
+      <c r="AQ50" s="8"/>
+      <c r="AR50" s="8"/>
+      <c r="AS50" s="8"/>
+      <c r="AT50" s="8"/>
+      <c r="AU50" s="8"/>
+      <c r="AV50" s="8"/>
+      <c r="AW50" s="8"/>
+      <c r="AX50" s="4"/>
+      <c r="AY50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:51">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
         <v>3</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="1"/>
-      <c r="U50" s="1"/>
-      <c r="V50" s="1"/>
-      <c r="W50" s="1"/>
-      <c r="X50" s="1"/>
-      <c r="Y50" s="1"/>
-      <c r="Z50" s="1"/>
-      <c r="AA50" s="1"/>
-      <c r="AB50" s="1"/>
-      <c r="AC50" s="1"/>
-      <c r="AD50" s="1"/>
-      <c r="AE50" s="1"/>
-      <c r="AF50" s="1"/>
-      <c r="AG50" s="1"/>
-      <c r="AH50" s="1"/>
-      <c r="AI50" s="1"/>
-      <c r="AJ50" s="1"/>
-      <c r="AK50" s="1"/>
-      <c r="AL50" s="1"/>
-      <c r="AM50" s="1"/>
-      <c r="AN50" s="1"/>
-      <c r="AO50" s="1"/>
-      <c r="AP50" s="1"/>
-      <c r="AQ50" s="1"/>
-      <c r="AR50" s="1"/>
-      <c r="AS50" s="1"/>
-      <c r="AT50" s="1"/>
-      <c r="AU50" s="1"/>
-      <c r="AV50" s="1"/>
-      <c r="AW50" s="1"/>
-      <c r="AX50" s="1"/>
-      <c r="AY50" s="3"/>
-    </row>
-    <row r="51" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51">
+        <v>6</v>
+      </c>
+      <c r="H51">
+        <v>7</v>
+      </c>
+      <c r="I51">
+        <v>8</v>
+      </c>
+      <c r="J51">
+        <v>9</v>
+      </c>
+      <c r="K51">
+        <v>10</v>
+      </c>
+      <c r="L51">
+        <v>11</v>
+      </c>
+      <c r="M51">
+        <v>12</v>
+      </c>
+      <c r="N51">
+        <v>13</v>
+      </c>
+      <c r="O51">
+        <v>14</v>
+      </c>
+      <c r="P51">
+        <v>15</v>
+      </c>
+      <c r="Q51">
+        <v>16</v>
+      </c>
+      <c r="R51">
+        <v>17</v>
+      </c>
+      <c r="S51">
+        <v>18</v>
+      </c>
+      <c r="T51">
+        <v>19</v>
+      </c>
+      <c r="U51">
+        <v>20</v>
+      </c>
+      <c r="V51">
+        <v>21</v>
+      </c>
+      <c r="W51">
+        <v>22</v>
+      </c>
+      <c r="X51">
+        <v>23</v>
+      </c>
+      <c r="Y51">
+        <v>24</v>
+      </c>
+      <c r="Z51">
+        <v>25</v>
+      </c>
+      <c r="AA51">
+        <v>26</v>
+      </c>
+      <c r="AB51">
+        <v>27</v>
+      </c>
+      <c r="AC51">
+        <v>28</v>
+      </c>
+      <c r="AD51">
+        <v>29</v>
+      </c>
+      <c r="AE51">
+        <v>30</v>
+      </c>
+      <c r="AF51">
+        <v>31</v>
+      </c>
+      <c r="AG51">
+        <v>32</v>
+      </c>
+      <c r="AH51">
+        <v>33</v>
+      </c>
+      <c r="AI51">
+        <v>34</v>
+      </c>
+      <c r="AJ51">
+        <v>35</v>
+      </c>
+      <c r="AK51">
+        <v>36</v>
+      </c>
+      <c r="AL51">
+        <v>37</v>
+      </c>
+      <c r="AM51">
+        <v>38</v>
+      </c>
+      <c r="AN51">
+        <v>39</v>
+      </c>
+      <c r="AO51">
+        <v>40</v>
+      </c>
+      <c r="AP51">
+        <v>41</v>
+      </c>
+      <c r="AQ51">
+        <v>42</v>
+      </c>
+      <c r="AR51">
+        <v>43</v>
+      </c>
+      <c r="AS51">
+        <v>44</v>
+      </c>
+      <c r="AT51">
+        <v>45</v>
+      </c>
+      <c r="AU51">
+        <v>46</v>
+      </c>
+      <c r="AV51">
+        <v>47</v>
+      </c>
+      <c r="AW51">
+        <v>48</v>
+      </c>
+      <c r="AX51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:51">
+      <c r="A53" s="14"/>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:51">
+      <c r="A54" s="15"/>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:51">
+      <c r="A55" s="13"/>
+      <c r="B55" t="s">
         <v>2</v>
-      </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
-      <c r="V51" s="1"/>
-      <c r="W51" s="1"/>
-      <c r="X51" s="1"/>
-      <c r="Y51" s="1"/>
-      <c r="Z51" s="1"/>
-      <c r="AA51" s="1"/>
-      <c r="AB51" s="1"/>
-      <c r="AC51" s="1"/>
-      <c r="AD51" s="1"/>
-      <c r="AE51" s="1"/>
-      <c r="AF51" s="1"/>
-      <c r="AG51" s="1"/>
-      <c r="AH51" s="1"/>
-      <c r="AI51" s="1"/>
-      <c r="AJ51" s="1"/>
-      <c r="AK51" s="1"/>
-      <c r="AL51" s="1"/>
-      <c r="AM51" s="1"/>
-      <c r="AN51" s="1"/>
-      <c r="AO51" s="1"/>
-      <c r="AP51" s="1"/>
-      <c r="AQ51" s="1"/>
-      <c r="AR51" s="1"/>
-      <c r="AS51" s="1"/>
-      <c r="AT51" s="1"/>
-      <c r="AU51" s="1"/>
-      <c r="AV51" s="1"/>
-      <c r="AW51" s="1"/>
-      <c r="AX51" s="1"/>
-      <c r="AY51" s="3"/>
-    </row>
-    <row r="52" spans="1:51" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>1</v>
-      </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="8"/>
-      <c r="S52" s="8"/>
-      <c r="T52" s="8"/>
-      <c r="U52" s="8"/>
-      <c r="V52" s="8"/>
-      <c r="W52" s="8"/>
-      <c r="X52" s="8"/>
-      <c r="Y52" s="8"/>
-      <c r="Z52" s="8"/>
-      <c r="AA52" s="8"/>
-      <c r="AB52" s="8"/>
-      <c r="AC52" s="8"/>
-      <c r="AD52" s="8"/>
-      <c r="AE52" s="8"/>
-      <c r="AF52" s="8"/>
-      <c r="AG52" s="8"/>
-      <c r="AH52" s="8"/>
-      <c r="AI52" s="8"/>
-      <c r="AJ52" s="8"/>
-      <c r="AK52" s="8"/>
-      <c r="AL52" s="8"/>
-      <c r="AM52" s="8"/>
-      <c r="AN52" s="8"/>
-      <c r="AO52" s="8"/>
-      <c r="AP52" s="8"/>
-      <c r="AQ52" s="8"/>
-      <c r="AR52" s="8"/>
-      <c r="AS52" s="8"/>
-      <c r="AT52" s="8"/>
-      <c r="AU52" s="8"/>
-      <c r="AV52" s="8"/>
-      <c r="AW52" s="8"/>
-      <c r="AX52" s="8"/>
-      <c r="AY52" s="4"/>
-    </row>
-    <row r="55" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="B55" s="14"/>
-      <c r="C55" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="B56" s="15"/>
-      <c r="C56" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="B57" s="13"/>
-      <c r="C57" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
